--- a/test cases/DienmayXANH-LogIn.xlsx
+++ b/test cases/DienmayXANH-LogIn.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="147">
   <si>
     <t>GUI &amp; FUNCTIONAL TEST CASES</t>
   </si>
@@ -324,21 +324,6 @@
   </si>
   <si>
     <t>Hệ thống hiển thị thông báo lỗi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Số điện thoại trống/không đúng định dạng</t>
-    </r>
   </si>
   <si>
     <t>Nhập kí tự đặc biệt vào trường 'Nhập số điện thoại mua hàng'.</t>
@@ -1442,13 +1427,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1475,66 +1484,45 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1570,9 +1558,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2460,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71:J72"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2479,19 +2464,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -2518,43 +2503,43 @@
       <c r="H2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="95"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
     </row>
     <row r="4" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="89">
+      <c r="A4" s="69">
         <v>1</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="72" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="27">
@@ -2564,18 +2549,18 @@
         <v>69</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="82"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="27">
         <v>2</v>
       </c>
@@ -2583,16 +2568,16 @@
         <v>71</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="83"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="27">
         <v>3</v>
       </c>
@@ -2602,16 +2587,16 @@
       <c r="H6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="83"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="27">
         <v>4</v>
       </c>
@@ -2619,16 +2604,16 @@
         <v>74</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="27">
         <v>5</v>
       </c>
@@ -2638,16 +2623,16 @@
       <c r="H8" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="83"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="27">
         <v>6</v>
       </c>
@@ -2655,24 +2640,24 @@
         <v>77</v>
       </c>
       <c r="H9" s="26"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="84"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="69">
+      <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="27">
@@ -2682,20 +2667,20 @@
         <v>69</v>
       </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="103" t="s">
         <v>81</v>
       </c>
       <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="27">
         <v>2</v>
       </c>
@@ -2703,16 +2688,16 @@
         <v>71</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="103"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="104"/>
       <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="27">
         <v>3</v>
       </c>
@@ -2722,16 +2707,16 @@
       <c r="H12" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="103"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="104"/>
       <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="27">
         <v>4</v>
       </c>
@@ -2739,22 +2724,22 @@
         <v>84</v>
       </c>
       <c r="H13" s="26"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="104"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="105"/>
       <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="77">
+      <c r="A14" s="81">
         <v>3</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="27">
@@ -2764,20 +2749,20 @@
         <v>69</v>
       </c>
       <c r="H14" s="26"/>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="62" t="s">
-        <v>88</v>
+      <c r="J14" s="90" t="s">
+        <v>81</v>
       </c>
       <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="27">
         <v>2</v>
       </c>
@@ -2785,35 +2770,35 @@
         <v>71</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="63"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="91"/>
       <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="27">
         <v>3</v>
       </c>
       <c r="G16" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="63"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="91"/>
       <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="27">
         <v>4</v>
       </c>
@@ -2821,22 +2806,22 @@
         <v>84</v>
       </c>
       <c r="H17" s="26"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="64"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="92"/>
       <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="77">
+      <c r="A18" s="81">
         <v>4</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="73" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F18" s="27">
@@ -2846,20 +2831,20 @@
         <v>69</v>
       </c>
       <c r="H18" s="26"/>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="62" t="s">
-        <v>88</v>
+      <c r="J18" s="90" t="s">
+        <v>81</v>
       </c>
       <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="27">
         <v>2</v>
       </c>
@@ -2867,35 +2852,35 @@
         <v>71</v>
       </c>
       <c r="H19" s="26"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="63"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="91"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="27">
         <v>3</v>
       </c>
       <c r="G20" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="91"/>
       <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="27">
         <v>4</v>
       </c>
@@ -2903,24 +2888,24 @@
         <v>84</v>
       </c>
       <c r="H21" s="26"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="64"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69">
+      <c r="A22" s="77">
         <v>5</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F22" s="27">
@@ -2930,20 +2915,20 @@
         <v>69</v>
       </c>
       <c r="H22" s="26"/>
-      <c r="I22" s="82" t="s">
+      <c r="I22" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="62" t="s">
-        <v>88</v>
+      <c r="J22" s="90" t="s">
+        <v>81</v>
       </c>
       <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="27">
         <v>2</v>
       </c>
@@ -2951,35 +2936,35 @@
         <v>71</v>
       </c>
       <c r="H23" s="26"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="63"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="27">
         <v>3</v>
       </c>
       <c r="G24" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="63"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="91"/>
       <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="27">
         <v>4</v>
       </c>
@@ -2987,22 +2972,22 @@
         <v>84</v>
       </c>
       <c r="H25" s="26"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="64"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="92"/>
       <c r="K25" s="28"/>
     </row>
     <row r="26" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="77">
+      <c r="A26" s="81">
         <v>6</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="73" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="27">
@@ -3012,20 +2997,20 @@
         <v>69</v>
       </c>
       <c r="H26" s="26"/>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="62" t="s">
-        <v>88</v>
+      <c r="J26" s="90" t="s">
+        <v>81</v>
       </c>
       <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="27">
         <v>2</v>
       </c>
@@ -3033,35 +3018,35 @@
         <v>71</v>
       </c>
       <c r="H27" s="26"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="63"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="91"/>
       <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="27">
         <v>3</v>
       </c>
       <c r="G28" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="63"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="91"/>
       <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="27">
         <v>4</v>
       </c>
@@ -3069,24 +3054,24 @@
         <v>84</v>
       </c>
       <c r="H29" s="26"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="64"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="92"/>
       <c r="K29" s="28"/>
     </row>
     <row r="30" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="89">
+      <c r="A30" s="69">
         <v>7</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="92" t="s">
+      <c r="E30" s="72" t="s">
         <v>68</v>
       </c>
       <c r="F30" s="24">
@@ -3096,20 +3081,20 @@
         <v>69</v>
       </c>
       <c r="H30" s="26"/>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="83" t="s">
         <v>87</v>
       </c>
       <c r="J30" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="105"/>
+        <v>144</v>
+      </c>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="24">
         <v>2</v>
       </c>
@@ -3117,16 +3102,16 @@
         <v>71</v>
       </c>
       <c r="H31" s="26"/>
-      <c r="I31" s="83"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="106"/>
-      <c r="K31" s="105"/>
+      <c r="K31" s="68"/>
     </row>
     <row r="32" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="24">
         <v>3</v>
       </c>
@@ -3134,18 +3119,18 @@
         <v>72</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="83"/>
+        <v>104</v>
+      </c>
+      <c r="I32" s="84"/>
       <c r="J32" s="106"/>
-      <c r="K32" s="105"/>
+      <c r="K32" s="68"/>
     </row>
     <row r="33" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="89"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="24">
         <v>4</v>
       </c>
@@ -3153,43 +3138,43 @@
         <v>74</v>
       </c>
       <c r="H33" s="26"/>
-      <c r="I33" s="83"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="106"/>
-      <c r="K33" s="105"/>
+      <c r="K33" s="68"/>
     </row>
     <row r="34" spans="1:11" ht="69" x14ac:dyDescent="0.3">
-      <c r="A34" s="89"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="24">
         <v>5</v>
       </c>
       <c r="G34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="I34" s="85"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="68"/>
+    </row>
+    <row r="35" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="69">
+        <v>8</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="84"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="105"/>
-    </row>
-    <row r="35" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="89">
-        <v>8</v>
-      </c>
-      <c r="B35" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="91" t="s">
+      <c r="D35" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="72" t="s">
         <v>68</v>
       </c>
       <c r="F35" s="24">
@@ -3199,20 +3184,20 @@
         <v>69</v>
       </c>
       <c r="H35" s="26"/>
-      <c r="I35" s="82" t="s">
+      <c r="I35" s="83" t="s">
         <v>87</v>
       </c>
       <c r="J35" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="105"/>
+        <v>145</v>
+      </c>
+      <c r="K35" s="68"/>
     </row>
     <row r="36" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="89"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="24">
         <v>2</v>
       </c>
@@ -3220,16 +3205,16 @@
         <v>71</v>
       </c>
       <c r="H36" s="26"/>
-      <c r="I36" s="83"/>
+      <c r="I36" s="84"/>
       <c r="J36" s="106"/>
-      <c r="K36" s="105"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="89"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="24">
         <v>3</v>
       </c>
@@ -3237,18 +3222,18 @@
         <v>72</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" s="83"/>
+        <v>109</v>
+      </c>
+      <c r="I37" s="84"/>
       <c r="J37" s="106"/>
-      <c r="K37" s="105"/>
+      <c r="K37" s="68"/>
     </row>
     <row r="38" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="89"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="24">
         <v>4</v>
       </c>
@@ -3256,43 +3241,43 @@
         <v>74</v>
       </c>
       <c r="H38" s="26"/>
-      <c r="I38" s="83"/>
+      <c r="I38" s="84"/>
       <c r="J38" s="106"/>
-      <c r="K38" s="105"/>
+      <c r="K38" s="68"/>
     </row>
     <row r="39" spans="1:11" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="89"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="24">
         <v>5</v>
       </c>
       <c r="G39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="I39" s="85"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="68"/>
+    </row>
+    <row r="40" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="77">
+        <v>9</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="105"/>
-    </row>
-    <row r="40" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="69">
-        <v>9</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="73" t="s">
+      <c r="D40" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="92" t="s">
+      <c r="E40" s="72" t="s">
         <v>68</v>
       </c>
       <c r="F40" s="24">
@@ -3302,20 +3287,20 @@
         <v>69</v>
       </c>
       <c r="H40" s="26"/>
-      <c r="I40" s="82" t="s">
+      <c r="I40" s="83" t="s">
         <v>87</v>
       </c>
       <c r="J40" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="K40" s="105"/>
+        <v>144</v>
+      </c>
+      <c r="K40" s="68"/>
     </row>
     <row r="41" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="77"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="24">
         <v>2</v>
       </c>
@@ -3323,16 +3308,16 @@
         <v>71</v>
       </c>
       <c r="H41" s="26"/>
-      <c r="I41" s="83"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="106"/>
-      <c r="K41" s="105"/>
+      <c r="K41" s="68"/>
     </row>
     <row r="42" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="77"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
       <c r="F42" s="24">
         <v>3</v>
       </c>
@@ -3340,18 +3325,18 @@
         <v>72</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="83"/>
+        <v>114</v>
+      </c>
+      <c r="I42" s="84"/>
       <c r="J42" s="106"/>
-      <c r="K42" s="105"/>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="77"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="24">
         <v>4</v>
       </c>
@@ -3359,41 +3344,41 @@
         <v>74</v>
       </c>
       <c r="H43" s="26"/>
-      <c r="I43" s="83"/>
+      <c r="I43" s="84"/>
       <c r="J43" s="106"/>
-      <c r="K43" s="105"/>
+      <c r="K43" s="68"/>
     </row>
     <row r="44" spans="1:11" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="78"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="24">
         <v>5</v>
       </c>
       <c r="G44" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="I44" s="85"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="68"/>
+    </row>
+    <row r="45" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="77">
+        <v>10</v>
+      </c>
+      <c r="B45" s="70"/>
+      <c r="C45" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I44" s="84"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="105"/>
-    </row>
-    <row r="45" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="69">
-        <v>10</v>
-      </c>
-      <c r="B45" s="90"/>
-      <c r="C45" s="73" t="s">
+      <c r="D45" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="92" t="s">
+      <c r="E45" s="72" t="s">
         <v>68</v>
       </c>
       <c r="F45" s="24">
@@ -3403,20 +3388,20 @@
         <v>69</v>
       </c>
       <c r="H45" s="26"/>
-      <c r="I45" s="82" t="s">
+      <c r="I45" s="83" t="s">
         <v>87</v>
       </c>
       <c r="J45" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="K45" s="105"/>
+        <v>144</v>
+      </c>
+      <c r="K45" s="68"/>
     </row>
     <row r="46" spans="1:11" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="77"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="24">
         <v>2</v>
       </c>
@@ -3424,16 +3409,16 @@
         <v>71</v>
       </c>
       <c r="H46" s="26"/>
-      <c r="I46" s="83"/>
+      <c r="I46" s="84"/>
       <c r="J46" s="106"/>
-      <c r="K46" s="105"/>
+      <c r="K46" s="68"/>
     </row>
     <row r="47" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="77"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="24">
         <v>3</v>
       </c>
@@ -3441,18 +3426,18 @@
         <v>72</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="83"/>
+        <v>119</v>
+      </c>
+      <c r="I47" s="84"/>
       <c r="J47" s="106"/>
-      <c r="K47" s="105"/>
+      <c r="K47" s="68"/>
     </row>
     <row r="48" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="77"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="24">
         <v>4</v>
       </c>
@@ -3460,43 +3445,43 @@
         <v>74</v>
       </c>
       <c r="H48" s="26"/>
-      <c r="I48" s="83"/>
+      <c r="I48" s="84"/>
       <c r="J48" s="106"/>
-      <c r="K48" s="105"/>
+      <c r="K48" s="68"/>
     </row>
     <row r="49" spans="1:11" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="78"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="24">
         <v>5</v>
       </c>
       <c r="G49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="I49" s="85"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="68"/>
+    </row>
+    <row r="50" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="77">
+        <v>11</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="105"/>
-    </row>
-    <row r="50" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="69">
-        <v>11</v>
-      </c>
-      <c r="B50" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="73" t="s">
+      <c r="D50" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="92" t="s">
+      <c r="E50" s="72" t="s">
         <v>68</v>
       </c>
       <c r="F50" s="24">
@@ -3506,20 +3491,20 @@
         <v>69</v>
       </c>
       <c r="H50" s="26"/>
-      <c r="I50" s="82" t="s">
+      <c r="I50" s="83" t="s">
         <v>87</v>
       </c>
       <c r="J50" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="K50" s="105"/>
+        <v>144</v>
+      </c>
+      <c r="K50" s="68"/>
     </row>
     <row r="51" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="77"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="24">
         <v>2</v>
       </c>
@@ -3527,16 +3512,16 @@
         <v>71</v>
       </c>
       <c r="H51" s="26"/>
-      <c r="I51" s="83"/>
+      <c r="I51" s="84"/>
       <c r="J51" s="106"/>
-      <c r="K51" s="105"/>
+      <c r="K51" s="68"/>
     </row>
     <row r="52" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="77"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="24">
         <v>3</v>
       </c>
@@ -3544,18 +3529,18 @@
         <v>72</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="I52" s="83"/>
+        <v>124</v>
+      </c>
+      <c r="I52" s="84"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="105"/>
+      <c r="K52" s="68"/>
     </row>
     <row r="53" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="77"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="24">
         <v>4</v>
       </c>
@@ -3563,41 +3548,41 @@
         <v>74</v>
       </c>
       <c r="H53" s="26"/>
-      <c r="I53" s="83"/>
+      <c r="I53" s="84"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="105"/>
+      <c r="K53" s="68"/>
     </row>
     <row r="54" spans="1:11" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="78"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="24">
         <v>5</v>
       </c>
       <c r="G54" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="I54" s="85"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="68"/>
+    </row>
+    <row r="55" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="77">
+        <v>12</v>
+      </c>
+      <c r="B55" s="70"/>
+      <c r="C55" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="I54" s="84"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="105"/>
-    </row>
-    <row r="55" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="69">
-        <v>12</v>
-      </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="73" t="s">
+      <c r="D55" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="92" t="s">
+      <c r="E55" s="72" t="s">
         <v>68</v>
       </c>
       <c r="F55" s="24">
@@ -3607,20 +3592,20 @@
         <v>69</v>
       </c>
       <c r="H55" s="26"/>
-      <c r="I55" s="82" t="s">
+      <c r="I55" s="83" t="s">
         <v>87</v>
       </c>
       <c r="J55" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="K55" s="105"/>
+        <v>145</v>
+      </c>
+      <c r="K55" s="68"/>
     </row>
     <row r="56" spans="1:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="77"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="24">
         <v>2</v>
       </c>
@@ -3628,16 +3613,16 @@
         <v>71</v>
       </c>
       <c r="H56" s="26"/>
-      <c r="I56" s="83"/>
+      <c r="I56" s="84"/>
       <c r="J56" s="106"/>
-      <c r="K56" s="105"/>
+      <c r="K56" s="68"/>
     </row>
     <row r="57" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="77"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
       <c r="F57" s="24">
         <v>3</v>
       </c>
@@ -3645,18 +3630,18 @@
         <v>72</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="I57" s="83"/>
+        <v>129</v>
+      </c>
+      <c r="I57" s="84"/>
       <c r="J57" s="106"/>
-      <c r="K57" s="105"/>
+      <c r="K57" s="68"/>
     </row>
     <row r="58" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="77"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
       <c r="F58" s="24">
         <v>4</v>
       </c>
@@ -3664,41 +3649,41 @@
         <v>74</v>
       </c>
       <c r="H58" s="26"/>
-      <c r="I58" s="83"/>
+      <c r="I58" s="84"/>
       <c r="J58" s="106"/>
-      <c r="K58" s="105"/>
+      <c r="K58" s="68"/>
     </row>
     <row r="59" spans="1:11" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="78"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="24">
         <v>5</v>
       </c>
       <c r="G59" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="26"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="68"/>
+    </row>
+    <row r="60" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="77">
+        <v>13</v>
+      </c>
+      <c r="B60" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="H59" s="26"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="105"/>
-    </row>
-    <row r="60" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="69">
-        <v>13</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="73" t="s">
+      <c r="D60" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="75" t="s">
+      <c r="E60" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F60" s="24">
@@ -3708,20 +3693,20 @@
         <v>69</v>
       </c>
       <c r="H60" s="26"/>
-      <c r="I60" s="82" t="s">
+      <c r="I60" s="83" t="s">
         <v>87</v>
       </c>
       <c r="J60" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="K60" s="105"/>
+        <v>133</v>
+      </c>
+      <c r="K60" s="68"/>
     </row>
     <row r="61" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="77"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="24">
         <v>2</v>
       </c>
@@ -3729,16 +3714,16 @@
         <v>71</v>
       </c>
       <c r="H61" s="26"/>
-      <c r="I61" s="83"/>
+      <c r="I61" s="84"/>
       <c r="J61" s="106"/>
-      <c r="K61" s="105"/>
+      <c r="K61" s="68"/>
     </row>
     <row r="62" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="77"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="24">
         <v>3</v>
       </c>
@@ -3746,62 +3731,62 @@
         <v>72</v>
       </c>
       <c r="H62" s="26"/>
-      <c r="I62" s="83"/>
+      <c r="I62" s="84"/>
       <c r="J62" s="106"/>
-      <c r="K62" s="105"/>
+      <c r="K62" s="68"/>
     </row>
     <row r="63" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="77"/>
-      <c r="B63" s="79"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="24">
         <v>4</v>
       </c>
       <c r="G63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="H63" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="I63" s="83"/>
+      <c r="I63" s="84"/>
       <c r="J63" s="106"/>
-      <c r="K63" s="105"/>
+      <c r="K63" s="68"/>
     </row>
     <row r="64" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="27">
         <v>5</v>
       </c>
       <c r="G64" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" s="26"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="H64" s="26"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="31" t="s">
+      <c r="K64" s="30"/>
+    </row>
+    <row r="65" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="69">
+        <v>14</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="K64" s="30"/>
-    </row>
-    <row r="65" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="89">
-        <v>14</v>
-      </c>
-      <c r="B65" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="91" t="s">
+      <c r="D65" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" s="92" t="s">
+      <c r="E65" s="72" t="s">
         <v>68</v>
       </c>
       <c r="F65" s="27">
@@ -3811,18 +3796,18 @@
         <v>69</v>
       </c>
       <c r="H65" s="26"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="82" t="s">
+      <c r="I65" s="83"/>
+      <c r="J65" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="K65" s="82"/>
+      <c r="K65" s="83"/>
     </row>
     <row r="66" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="89"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
       <c r="F66" s="27">
         <v>2</v>
       </c>
@@ -3830,16 +3815,16 @@
         <v>71</v>
       </c>
       <c r="H66" s="26"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
     </row>
     <row r="67" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="89"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
       <c r="F67" s="27">
         <v>3</v>
       </c>
@@ -3849,33 +3834,33 @@
       <c r="H67" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
     </row>
     <row r="68" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="89"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
       <c r="F68" s="27">
         <v>4</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H68" s="26"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
     </row>
     <row r="69" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="89"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
       <c r="F69" s="27">
         <v>5</v>
       </c>
@@ -3885,41 +3870,41 @@
       <c r="H69" s="26">
         <v>4541</v>
       </c>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
     </row>
     <row r="70" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="89"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
       <c r="F70" s="27">
         <v>6</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H70" s="26"/>
       <c r="I70" s="107"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="85"/>
     </row>
     <row r="71" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="69">
+      <c r="A71" s="77">
         <v>15</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="75" t="s">
+      <c r="E71" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F71" s="27">
@@ -3929,18 +3914,18 @@
         <v>69</v>
       </c>
       <c r="H71" s="29"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="K71" s="67"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="K71" s="75"/>
     </row>
     <row r="72" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="70"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
+      <c r="A72" s="78"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
       <c r="F72" s="27">
         <v>2</v>
       </c>
@@ -3948,24 +3933,12 @@
         <v>71</v>
       </c>
       <c r="H72" s="29"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="68"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="K55:K59"/>
-    <mergeCell ref="J50:J54"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="K60:K63"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
     <mergeCell ref="C60:C64"/>
     <mergeCell ref="D60:D64"/>
     <mergeCell ref="E60:E64"/>
@@ -3974,7 +3947,15 @@
     <mergeCell ref="I65:I70"/>
     <mergeCell ref="C50:C54"/>
     <mergeCell ref="C55:C59"/>
-    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="K55:K59"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
     <mergeCell ref="K40:K44"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="E45:E49"/>
@@ -3986,29 +3967,8 @@
     <mergeCell ref="D40:D44"/>
     <mergeCell ref="E40:E44"/>
     <mergeCell ref="J40:J44"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="D55:D59"/>
     <mergeCell ref="I40:I44"/>
     <mergeCell ref="I45:I49"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="I55:I59"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="J35:J39"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="E18:E21"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
@@ -4021,8 +3981,6 @@
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="I26:I29"/>
@@ -4043,6 +4001,10 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I4:J9"/>
     <mergeCell ref="J26:J29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="E18:E21"/>
     <mergeCell ref="J71:J72"/>
     <mergeCell ref="K71:K72"/>
     <mergeCell ref="A71:A72"/>
@@ -4053,10 +4015,20 @@
     <mergeCell ref="I71:I72"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="K60:K63"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="E26:E29"/>
@@ -4066,6 +4038,19 @@
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="C35:C39"/>
     <mergeCell ref="D35:D39"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="I35:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4073,12 +4058,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007916DAE6CBAB0E478E10A9FCA3CC0E19" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc4eab9cdd79106b7ff0c84dd396c527">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73b10483-4eab-47d9-97c6-997f49bd58aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c952eea70f5f85d64c583e57f778f77" ns2:_="">
     <xsd:import namespace="73b10483-4eab-47d9-97c6-997f49bd58aa"/>
@@ -4242,16 +4236,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84EB4B30-601D-48BF-96F1-029AB3DE9714}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D9D1FC-073F-4460-A26C-2FAD280183D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4260,7 +4253,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F956974-FEEB-46E5-AEA7-EE73EA62540F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4276,12 +4269,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84EB4B30-601D-48BF-96F1-029AB3DE9714}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>